--- a/published-data/fonds-solidarite/fds-2022-06-16/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-16/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>249331</v>
+        <v>249332</v>
       </c>
       <c r="D3" t="n">
         <v>47457</v>
       </c>
       <c r="E3" t="n">
-        <v>1036482571</v>
+        <v>1036484754</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -2583,13 +2583,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>141683</v>
+        <v>141684</v>
       </c>
       <c r="D53" t="n">
         <v>28854</v>
       </c>
       <c r="E53" t="n">
-        <v>590071269</v>
+        <v>590072732</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2747,13 +2747,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3713</v>
+        <v>3714</v>
       </c>
       <c r="D57" t="n">
         <v>623</v>
       </c>
       <c r="E57" t="n">
-        <v>138459554</v>
+        <v>138524268</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>409222</v>
+        <v>409227</v>
       </c>
       <c r="D92" t="n">
         <v>70908</v>
       </c>
       <c r="E92" t="n">
-        <v>1596641014</v>
+        <v>1596677774</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>209626</v>
+        <v>209631</v>
       </c>
       <c r="D93" t="n">
         <v>34262</v>
       </c>
       <c r="E93" t="n">
-        <v>1309659040</v>
+        <v>1309735665</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4305,13 +4305,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>50794</v>
+        <v>50797</v>
       </c>
       <c r="D95" t="n">
         <v>6982</v>
       </c>
       <c r="E95" t="n">
-        <v>933788017</v>
+        <v>933855262</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>17308</v>
+        <v>17309</v>
       </c>
       <c r="D96" t="n">
         <v>2565</v>
       </c>
       <c r="E96" t="n">
-        <v>795803034</v>
+        <v>795853177</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>135253</v>
+        <v>135254</v>
       </c>
       <c r="D104" t="n">
         <v>23287</v>
       </c>
       <c r="E104" t="n">
-        <v>272253470</v>
+        <v>272256995</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4920,13 +4920,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D110" t="n">
         <v>71</v>
       </c>
       <c r="E110" t="n">
-        <v>16698678</v>
+        <v>16733167</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>226101</v>
+        <v>226103</v>
       </c>
       <c r="D174" t="n">
         <v>40899</v>
       </c>
       <c r="E174" t="n">
-        <v>900669595</v>
+        <v>900673734</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>80784</v>
+        <v>80785</v>
       </c>
       <c r="D175" t="n">
         <v>14070</v>
       </c>
       <c r="E175" t="n">
-        <v>486177317</v>
+        <v>486184257</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-16/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-16/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20793</v>
+        <v>20794</v>
       </c>
       <c r="D6" t="n">
         <v>3261</v>
       </c>
       <c r="E6" t="n">
-        <v>360616126</v>
+        <v>360648950</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D8" t="n">
         <v>194</v>
       </c>
       <c r="E8" t="n">
-        <v>91237938</v>
+        <v>91299368</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1394,13 +1394,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>35708</v>
+        <v>35709</v>
       </c>
       <c r="D24" t="n">
         <v>6498</v>
       </c>
       <c r="E24" t="n">
-        <v>132407225</v>
+        <v>132410803</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1968,13 +1968,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>7250</v>
+        <v>7251</v>
       </c>
       <c r="D38" t="n">
         <v>1431</v>
       </c>
       <c r="E38" t="n">
-        <v>58549613</v>
+        <v>58559613</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2788,13 +2788,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D58" t="n">
         <v>76</v>
       </c>
       <c r="E58" t="n">
-        <v>34750398</v>
+        <v>34758363</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3280,13 +3280,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>15734</v>
+        <v>15735</v>
       </c>
       <c r="D70" t="n">
         <v>2768</v>
       </c>
       <c r="E70" t="n">
-        <v>24684987</v>
+        <v>24685528</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>409227</v>
+        <v>409232</v>
       </c>
       <c r="D92" t="n">
         <v>70908</v>
       </c>
       <c r="E92" t="n">
-        <v>1596677774</v>
+        <v>1596728283</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>209631</v>
+        <v>209636</v>
       </c>
       <c r="D93" t="n">
         <v>34262</v>
       </c>
       <c r="E93" t="n">
-        <v>1309735665</v>
+        <v>1309758854</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4264,13 +4264,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>94223</v>
+        <v>94224</v>
       </c>
       <c r="D94" t="n">
         <v>13795</v>
       </c>
       <c r="E94" t="n">
-        <v>918536609</v>
+        <v>918545109</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>17309</v>
+        <v>17310</v>
       </c>
       <c r="D96" t="n">
         <v>2565</v>
       </c>
       <c r="E96" t="n">
-        <v>795853177</v>
+        <v>795857580</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>135254</v>
+        <v>135256</v>
       </c>
       <c r="D104" t="n">
         <v>23287</v>
       </c>
       <c r="E104" t="n">
-        <v>272256995</v>
+        <v>272260903</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -5084,13 +5084,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>3801</v>
+        <v>3803</v>
       </c>
       <c r="D114" t="n">
         <v>699</v>
       </c>
       <c r="E114" t="n">
-        <v>9113119</v>
+        <v>9118147</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -5330,13 +5330,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D120" t="n">
         <v>7</v>
       </c>
       <c r="E120" t="n">
-        <v>2472196</v>
+        <v>2534864</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -6191,13 +6191,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>80475</v>
+        <v>80476</v>
       </c>
       <c r="D141" t="n">
         <v>15006</v>
       </c>
       <c r="E141" t="n">
-        <v>280728664</v>
+        <v>280739870</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -6314,13 +6314,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>24415</v>
+        <v>24417</v>
       </c>
       <c r="D144" t="n">
         <v>4622</v>
       </c>
       <c r="E144" t="n">
-        <v>201968923</v>
+        <v>201985320</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -7626,13 +7626,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>28899</v>
+        <v>28901</v>
       </c>
       <c r="D176" t="n">
         <v>4722</v>
       </c>
       <c r="E176" t="n">
-        <v>263087109</v>
+        <v>263226900</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -7749,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D179" t="n">
         <v>128</v>
       </c>
       <c r="E179" t="n">
-        <v>54061657</v>
+        <v>54103701</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
